--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="16404" windowHeight="5316" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -55,27 +56,6 @@
     <t>cancelled</t>
   </si>
   <si>
-    <t>100h</t>
-  </si>
-  <si>
-    <t>200h</t>
-  </si>
-  <si>
-    <t>400h</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>450h</t>
-  </si>
-  <si>
-    <t>40h</t>
-  </si>
-  <si>
-    <t>180h</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -115,18 +95,6 @@
     <t>Main Window</t>
   </si>
   <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Admit new patient</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
-    <t>a new patient makes contact on reference from Dr. Boehm. After creating a new patient record, the medical history...</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -136,15 +104,6 @@
     <t>0h</t>
   </si>
   <si>
-    <t>50h</t>
-  </si>
-  <si>
-    <t>350h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -185,6 +144,45 @@
   </si>
   <si>
     <t>meles1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient </t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record a new Patient. Edit Patient Data. </t>
+  </si>
+  <si>
+    <t>Send and receive messages between Doctor and Patient</t>
+  </si>
+  <si>
+    <t>Record a new case. Add diagnosis. Add Treatment. Edit Case.</t>
+  </si>
+  <si>
+    <t>Data model for patient record needs to be created based on standard sql.</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Data model for doctor login record needs to be created based on standard sql.</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>65h</t>
+  </si>
+  <si>
+    <t>35h</t>
+  </si>
+  <si>
+    <t>Create class Patient</t>
   </si>
 </sst>
 </file>
@@ -240,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -258,6 +256,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -559,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,41 +577,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -618,10 +620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -650,116 +652,124 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -792,25 +802,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
@@ -821,25 +831,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -854,21 +864,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -877,13 +893,13 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -893,14 +909,17 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -909,11 +928,10 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>10</v>
@@ -926,14 +944,11 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -942,10 +957,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>11</v>
@@ -958,14 +973,11 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -974,12 +986,58 @@
         <v>8</v>
       </c>
       <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -990,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,16 +1063,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,27 +1080,41 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>42262</v>
+        <v>42327</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>42263</v>
+        <v>42327</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>180</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>42327</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannis\workspace\ch.bfh.btx8081.w2015.green\doc\task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2436" windowWidth="16404" windowHeight="5316" activeTab="2"/>
   </bookViews>
@@ -12,13 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <oleSize ref="A1:N9"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -38,24 +42,12 @@
     <t>high</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>waiting</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -71,30 +63,9 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
-    <t>UI, Controller</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -164,25 +135,99 @@
     <t>Record a new case. Add diagnosis. Add Treatment. Edit Case.</t>
   </si>
   <si>
-    <t>Data model for patient record needs to be created based on standard sql.</t>
-  </si>
-  <si>
     <t>Patient</t>
   </si>
   <si>
-    <t>Data model for doctor login record needs to be created based on standard sql.</t>
-  </si>
-  <si>
     <t>20h</t>
   </si>
   <si>
-    <t>65h</t>
-  </si>
-  <si>
-    <t>35h</t>
-  </si>
-  <si>
-    <t>Create class Patient</t>
+    <t>Manuel Pfister</t>
+  </si>
+  <si>
+    <t>55h</t>
+  </si>
+  <si>
+    <t>75h</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Pfister</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>User Interface for Login</t>
+  </si>
+  <si>
+    <t>Login functionality</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Data model for patient record</t>
+  </si>
+  <si>
+    <t>Data model for doctor login</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>User Interface needs 
+to be designed</t>
+  </si>
+  <si>
+    <t>create new Patient,
+ edit Data, save Data</t>
+  </si>
+  <si>
+    <t>Data model for 
+Message</t>
+  </si>
+  <si>
+    <t>create/send/receive 
+Message, delete Message</t>
+  </si>
+  <si>
+    <t>Data model for Case, 
+Diagnosis, Treatment and Medication</t>
+  </si>
+  <si>
+    <t>Functionality for 
+new Case, new Diagnosis, new Treatment, edit Treatment, delete Treatment, edit Diagnosis, new Medication, edit Medication and Delete Medication</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Application GUI needs 
+to be designed and prepared for further steps</t>
+  </si>
+  <si>
+    <t>Effort (h) Plan Original</t>
+  </si>
+  <si>
+    <t>Effort (h) Plan Updated</t>
+  </si>
+  <si>
+    <t>Mele</t>
+  </si>
+  <si>
+    <t>Vladi</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Portmann</t>
+  </si>
+  <si>
+    <t>Mele
+Portmann</t>
   </si>
 </sst>
 </file>
@@ -269,14 +314,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,9 +362,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +611,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,42 +625,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -620,10 +672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -652,13 +704,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -669,25 +721,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -695,25 +744,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -721,42 +767,26 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3"/>
+        <v>7</v>
+      </c>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +807,7 @@
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="6.21875" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
@@ -793,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -802,25 +832,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
@@ -828,217 +858,382 @@
     </row>
     <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>1.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2.1</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
         <v>5</v>
       </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4.2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
       <c r="L13" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1246,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,16 +1258,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,10 +1278,10 @@
         <v>42327</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,10 +1292,10 @@
         <v>42327</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,10 +1306,10 @@
         <v>42327</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannis\workspace\ch.bfh.btx8081.w2015.green\doc\task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="16404" windowHeight="5316" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16860" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,12 +12,13 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:P22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -228,13 +224,16 @@
   <si>
     <t>Mele
 Portmann</t>
+  </si>
+  <si>
+    <t>pfism11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,9 +321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,9 +361,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,10 +395,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,10 +429,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,20 +604,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,7 +625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -636,7 +633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -644,7 +641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -652,7 +649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -660,9 +657,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -671,26 +671,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -739,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3">
         <v>2</v>
       </c>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="H7" s="1"/>
     </row>
   </sheetData>
@@ -795,30 +795,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="60">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1.2</v>
       </c>
@@ -958,7 +958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1.3</v>
       </c>
@@ -984,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="30">
       <c r="A6">
         <v>2.1</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30">
       <c r="A8">
         <v>2.2999999999999998</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="45">
       <c r="A11">
         <v>3.3</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="45">
       <c r="A12">
         <v>4.0999999999999996</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>4.2</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="150">
       <c r="A14">
         <v>4.3</v>
       </c>
@@ -1242,21 +1242,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16860" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="16404" windowHeight="5316" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,13 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:P22"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -224,16 +224,13 @@
   <si>
     <t>Mele
 Portmann</t>
-  </si>
-  <si>
-    <t>pfism11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -395,6 +392,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -429,6 +427,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -604,20 +603,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -625,7 +624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -633,7 +632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -641,7 +640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -649,7 +648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -657,12 +656,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -671,26 +667,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -716,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -739,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -762,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -785,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
     </row>
   </sheetData>
@@ -795,30 +791,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -856,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75">
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -891,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30">
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -926,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.2</v>
       </c>
@@ -958,7 +954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.3</v>
       </c>
@@ -984,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30">
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.1</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
@@ -1045,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.2999999999999998</v>
       </c>
@@ -1071,7 +1067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -1097,7 +1093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -1123,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45">
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.3</v>
       </c>
@@ -1149,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45">
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4.0999999999999996</v>
       </c>
@@ -1184,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.2</v>
       </c>
@@ -1210,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="150">
+    <row r="14" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.3</v>
       </c>
@@ -1242,21 +1238,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1284,7 +1280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1298,7 +1294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -12,13 +12,13 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <oleSize ref="A1:N8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Effort Plan Updated</t>
-  </si>
-  <si>
-    <t>0h</t>
   </si>
   <si>
     <t>Reviewer</t>
@@ -247,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +263,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -279,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -300,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -621,44 +625,44 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +675,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,19 +721,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -740,19 +744,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -763,19 +767,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
@@ -792,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,16 +838,16 @@
         <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>12</v>
@@ -860,19 +864,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -880,8 +884,11 @@
       <c r="I2">
         <v>3</v>
       </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
       <c r="K2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
@@ -895,19 +902,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -915,8 +922,11 @@
       <c r="I3">
         <v>2</v>
       </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
         <v>7</v>
@@ -930,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -947,8 +957,11 @@
       <c r="I4">
         <v>4</v>
       </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>7</v>
@@ -959,16 +972,16 @@
         <v>1.3</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -988,19 +1001,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -1008,8 +1021,11 @@
       <c r="I6">
         <v>3</v>
       </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
         <v>7</v>
@@ -1020,16 +1036,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -1046,16 +1062,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1071,23 +1087,26 @@
       <c r="A9">
         <v>3.1</v>
       </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>7</v>
@@ -1098,16 +1117,16 @@
         <v>3.2</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1124,16 +1143,16 @@
         <v>3.3</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1153,19 +1172,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -1173,8 +1192,11 @@
       <c r="I12">
         <v>20</v>
       </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
       <c r="K12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" t="s">
         <v>7</v>
@@ -1184,23 +1206,26 @@
       <c r="A13">
         <v>4.2</v>
       </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
         <v>7</v>
@@ -1211,16 +1236,16 @@
         <v>4.3</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14">
         <v>44</v>
@@ -1232,6 +1257,15 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f>SUM(K2:K14)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1242,7 +1276,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,16 +1288,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1277,7 +1311,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="16404" windowHeight="5316" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2436" windowWidth="16404" windowHeight="5316"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:N8"/>
+  <oleSize ref="A1:O16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -221,6 +221,9 @@
   <si>
     <t>Mele
 Portmann</t>
+  </si>
+  <si>
+    <t>pfism11</t>
   </si>
 </sst>
 </file>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,6 +666,9 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="16404" windowHeight="5316"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16860" windowHeight="4830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,13 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <oleSize ref="A1:O16"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:M9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Effort Plan Updated</t>
+  </si>
+  <si>
+    <t>0h</t>
   </si>
   <si>
     <t>Reviewer</t>
@@ -229,8 +232,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,12 +269,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -285,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -306,7 +303,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -325,7 +321,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -399,7 +395,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -434,7 +429,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -610,65 +604,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -677,26 +671,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -722,76 +716,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="H7" s="1"/>
     </row>
   </sheetData>
@@ -801,30 +795,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="60">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -844,16 +838,16 @@
         <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>12</v>
@@ -862,7 +856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -870,19 +864,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -890,17 +884,14 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
       <c r="K2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -908,19 +899,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -928,17 +919,14 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
       <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1.2</v>
       </c>
@@ -946,16 +934,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -963,31 +951,28 @@
       <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
       <c r="K4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1.3</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -999,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="30">
       <c r="A6">
         <v>2.1</v>
       </c>
@@ -1007,19 +992,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -1027,31 +1012,28 @@
       <c r="I6">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
       <c r="K6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -1063,21 +1045,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30">
       <c r="A8">
         <v>2.2999999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1089,50 +1071,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9">
         <v>3.1</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>3.2</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1144,21 +1123,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="45">
       <c r="A11">
         <v>3.3</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1170,7 +1149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="45">
       <c r="A12">
         <v>4.0999999999999996</v>
       </c>
@@ -1178,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
         <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -1198,60 +1177,54 @@
       <c r="I12">
         <v>20</v>
       </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
       <c r="K12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>4.2</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="150">
       <c r="A14">
         <v>4.3</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I14">
         <v>44</v>
@@ -1263,50 +1236,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K15">
-        <f>SUM(K2:K14)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1317,10 +1281,10 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1334,7 +1298,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\BFH\workspace\ch.bfh.btx8081.w2015.green\doc\task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16860" windowHeight="4830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3720" windowWidth="16860" windowHeight="4830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -12,13 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:M9"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -120,9 +124,6 @@
   </si>
   <si>
     <t>Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Record a new Patient. Edit Patient Data. </t>
   </si>
   <si>
     <t>Send and receive messages between Doctor and Patient</t>
@@ -227,13 +228,80 @@
   </si>
   <si>
     <t>pfism11</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Prototypes</t>
+  </si>
+  <si>
+    <t>Modify Prototypes</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Login and Homescreen of the 
+Application for the Doctor</t>
+  </si>
+  <si>
+    <t>25h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching for a Patient. Record a new Patient. Edit Patient Data. </t>
+  </si>
+  <si>
+    <t>60h</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>User Interface for Home</t>
+  </si>
+  <si>
+    <t>Functionality Calendar</t>
+  </si>
+  <si>
+    <t>State Pattern</t>
+  </si>
+  <si>
+    <t>State Pattern for Sprint 2</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Vadi / Ramos</t>
+  </si>
+  <si>
+    <t>Vladi / Ramos</t>
+  </si>
+  <si>
+    <t>?.01.2016</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -303,6 +371,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -321,9 +392,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -361,9 +432,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,9 +466,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,9 +501,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -604,20 +677,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -625,7 +698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -633,7 +706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -641,7 +714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -649,7 +722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -657,12 +730,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -671,14 +744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -690,7 +763,7 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -716,76 +789,138 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H7" s="1"/>
     </row>
   </sheetData>
@@ -795,14 +930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
@@ -818,7 +953,7 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -844,10 +979,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>12</v>
@@ -856,59 +991,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75">
-      <c r="A2">
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30">
-      <c r="A3">
-        <v>1.1000000000000001</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -917,241 +1055,325 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4">
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>1.3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30">
-      <c r="A6">
-        <v>2.1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30">
-      <c r="A7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30">
-      <c r="A8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
+      <c r="J8">
+        <v>4</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.1</v>
+        <v>2.1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
         <v>63</v>
       </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
       <c r="I9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>3.2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
+      <c r="J10">
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
       <c r="I11">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1160,13 +1382,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
@@ -1177,63 +1399,208 @@
       <c r="I12">
         <v>20</v>
       </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
       <c r="K12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4.2</v>
+        <v>3.2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
       </c>
       <c r="I13">
         <v>30</v>
       </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="150">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4.3</v>
+        <v>3.3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="I14">
         <v>44</v>
       </c>
+      <c r="J14">
+        <v>45</v>
+      </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4.2</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4.3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19">
+        <f>SUM(I2:I17)</f>
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <f>SUM(J2:J17)</f>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1242,21 +1609,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1270,12 +1637,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>42327</v>
+        <v>42340</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -1284,12 +1651,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>42327</v>
+        <v>42355</v>
       </c>
       <c r="C3">
         <v>70</v>
@@ -1298,12 +1665,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>42327</v>
+      <c r="B4" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C4">
         <v>50</v>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3720" windowWidth="16860" windowHeight="4830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4170" windowWidth="16860" windowHeight="4830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -264,9 +264,6 @@
     <t xml:space="preserve">Searching for a Patient. Record a new Patient. Edit Patient Data. </t>
   </si>
   <si>
-    <t>60h</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -282,19 +279,28 @@
     <t>State Pattern for Sprint 2</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>Vadi / Ramos</t>
   </si>
   <si>
     <t>Vladi / Ramos</t>
   </si>
   <si>
-    <t>?.01.2016</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>22h</t>
+  </si>
+  <si>
+    <t>35h</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>View with Logic</t>
   </si>
 </sst>
 </file>
@@ -748,7 +754,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +815,7 @@
         <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>72</v>
@@ -836,7 +842,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>72</v>
@@ -859,10 +865,10 @@
         <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>72</v>
@@ -899,22 +905,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
@@ -931,10 +937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,10 +1064,10 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
         <v>71</v>
@@ -1099,10 +1105,10 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1134,10 +1140,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
         <v>71</v>
@@ -1175,10 +1181,10 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1189,10 +1195,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -1210,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1227,10 +1233,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
@@ -1248,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1327,10 +1333,10 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1362,10 +1368,10 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
         <v>72</v>
@@ -1388,7 +1394,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
@@ -1403,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
         <v>72</v>
@@ -1426,7 +1432,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
         <v>63</v>
@@ -1438,10 +1444,10 @@
         <v>30</v>
       </c>
       <c r="J13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
         <v>72</v>
@@ -1467,7 +1473,7 @@
         <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>5</v>
@@ -1476,13 +1482,13 @@
         <v>44</v>
       </c>
       <c r="J14">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1511,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1546,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1590,17 +1596,69 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19">
-        <f>SUM(I2:I17)</f>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20">
+        <f>SUM(I2:I18)</f>
         <v>150</v>
       </c>
-      <c r="J19">
-        <f>SUM(J2:J17)</f>
+      <c r="J20">
+        <f>SUM(J2:J18)</f>
         <v>150</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K2:K18)</f>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1671,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1706,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,24 +1717,24 @@
         <v>42355</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>86</v>
+      <c r="B4" s="6">
+        <v>42383</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4170" windowWidth="16860" windowHeight="4830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4620" windowWidth="16860" windowHeight="4830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -223,17 +223,7 @@
     <t>Portmann</t>
   </si>
   <si>
-    <t>Mele
-Portmann</t>
-  </si>
-  <si>
     <t>pfism11</t>
-  </si>
-  <si>
-    <t>10h</t>
-  </si>
-  <si>
-    <t>1h</t>
   </si>
   <si>
     <t>Prototypes</t>
@@ -288,19 +278,38 @@
     <t>Total</t>
   </si>
   <si>
-    <t>18h</t>
-  </si>
-  <si>
-    <t>22h</t>
-  </si>
-  <si>
-    <t>35h</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
     <t>View with Logic</t>
+  </si>
+  <si>
+    <t>Mele,
+Portmann, Vladi, Ramos</t>
+  </si>
+  <si>
+    <t>Mele / Portmann</t>
+  </si>
+  <si>
+    <t>Portmann, Mele</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>58h</t>
+  </si>
+  <si>
+    <t>Modifying Prototype</t>
+  </si>
+  <si>
+    <t>41h</t>
+  </si>
+  <si>
+    <t>27h</t>
+  </si>
+  <si>
+    <t>65h</t>
   </si>
 </sst>
 </file>
@@ -741,7 +750,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,13 +806,13 @@
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -812,122 +821,149 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,13 +1041,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>60</v>
@@ -1032,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -1070,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1108,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1146,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1172,7 +1208,7 @@
         <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1184,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1195,10 +1231,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -1222,7 +1258,7 @@
         <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1233,10 +1269,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
@@ -1260,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1286,7 +1322,7 @@
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -1295,10 +1331,10 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1324,7 +1360,7 @@
         <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -1333,10 +1369,10 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1362,19 +1398,19 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <v>15</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1394,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
@@ -1409,10 +1445,10 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1432,25 +1468,25 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
         <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I13">
         <v>30</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -1470,10 +1506,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>5</v>
@@ -1482,13 +1518,13 @@
         <v>44</v>
       </c>
       <c r="J14">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1510,6 +1546,9 @@
       <c r="F15" t="s">
         <v>62</v>
       </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
       <c r="H15" t="s">
         <v>6</v>
       </c>
@@ -1517,13 +1556,13 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1545,6 +1584,9 @@
       <c r="F16" t="s">
         <v>60</v>
       </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
       <c r="H16" t="s">
         <v>6</v>
       </c>
@@ -1552,13 +1594,13 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1580,6 +1622,9 @@
       <c r="F17" t="s">
         <v>62</v>
       </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
       <c r="H17" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1604,16 +1649,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>60</v>
@@ -1625,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1646,7 +1691,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <f>SUM(I2:I18)</f>
@@ -1658,7 +1703,7 @@
       </c>
       <c r="K20">
         <f>SUM(K2:K18)</f>
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1716,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1762,7 @@
         <v>42355</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1731,10 +1776,10 @@
         <v>42383</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\BFH\workspace\ch.bfh.btx8081.w2015.green\doc\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannis\workspace\ch.bfh.btx8081.w2015.green\doc\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4620" windowWidth="16860" windowHeight="4830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4620" windowWidth="16860" windowHeight="4836" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -178,10 +178,6 @@
 to be designed</t>
   </si>
   <si>
-    <t>create new Patient,
- edit Data, save Data</t>
-  </si>
-  <si>
     <t>Data model for 
 Message</t>
   </si>
@@ -310,6 +306,9 @@
   </si>
   <si>
     <t>65h</t>
+  </si>
+  <si>
+    <t>edit Data, save Data</t>
   </si>
 </sst>
 </file>
@@ -699,13 +698,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -713,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -721,7 +720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -729,7 +728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -737,7 +736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -745,12 +744,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -763,22 +762,22 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -804,15 +803,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -821,17 +820,17 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -839,7 +838,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -848,17 +847,17 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -866,7 +865,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -878,13 +877,13 @@
         <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -901,16 +900,16 @@
         <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -927,24 +926,24 @@
         <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -953,16 +952,16 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H8" s="1"/>
     </row>
   </sheetData>
@@ -975,27 +974,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1021,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>12</v>
@@ -1033,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1041,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>5</v>
@@ -1068,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1079,19 +1078,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
         <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -1106,10 +1105,10 @@
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1144,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.2</v>
       </c>
@@ -1164,10 +1163,10 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
         <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -1182,10 +1181,10 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.3</v>
       </c>
@@ -1205,10 +1204,10 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1220,10 +1219,10 @@
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.4</v>
       </c>
@@ -1231,19 +1230,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -1258,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -1269,19 +1268,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -1296,10 +1295,10 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.1</v>
       </c>
@@ -1316,13 +1315,13 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -1334,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.2000000000000002</v>
       </c>
@@ -1354,13 +1353,13 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -1372,10 +1371,10 @@
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.2999999999999998</v>
       </c>
@@ -1386,19 +1385,19 @@
         <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11">
         <v>15</v>
@@ -1413,7 +1412,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.1</v>
       </c>
@@ -1424,16 +1423,16 @@
         <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -1448,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.2</v>
       </c>
@@ -1468,13 +1467,13 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13">
         <v>30</v>
@@ -1486,10 +1485,10 @@
         <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.3</v>
       </c>
@@ -1500,16 +1499,16 @@
         <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>5</v>
@@ -1524,10 +1523,10 @@
         <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.0999999999999996</v>
       </c>
@@ -1538,16 +1537,16 @@
         <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -1562,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.2</v>
       </c>
@@ -1582,10 +1581,10 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -1600,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.3</v>
       </c>
@@ -1614,16 +1613,16 @@
         <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -1641,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1649,19 +1648,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>5</v>
@@ -1676,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1689,9 +1688,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20">
         <f>SUM(I2:I18)</f>
@@ -1719,14 +1718,14 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>

--- a/doc/task10/scrum_teamgreen.xlsx
+++ b/doc/task10/scrum_teamgreen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannis\workspace\ch.bfh.btx8081.w2015.green\doc\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\BFH\workspace\ch.bfh.btx8081.w2015.green\doc\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4620" windowWidth="16860" windowHeight="4836" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="5070" windowWidth="16860" windowHeight="4830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -302,13 +302,13 @@
     <t>41h</t>
   </si>
   <si>
-    <t>27h</t>
-  </si>
-  <si>
-    <t>65h</t>
-  </si>
-  <si>
     <t>edit Data, save Data</t>
+  </si>
+  <si>
+    <t>28h</t>
+  </si>
+  <si>
+    <t>71h</t>
   </si>
 </sst>
 </file>
@@ -698,13 +698,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -728,7 +728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -736,7 +736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -744,7 +744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -762,22 +762,22 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -877,13 +877,13 @@
         <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,13 +903,13 @@
         <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -935,7 +935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -961,7 +961,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
     </row>
   </sheetData>
@@ -974,27 +974,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.2</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.3</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.4</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.1</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.2000000000000002</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.2999999999999998</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
@@ -1412,7 +1412,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.1</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.2</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.3</v>
       </c>
@@ -1520,13 +1520,13 @@
         <v>38</v>
       </c>
       <c r="K14">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.0999999999999996</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4.2</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.3</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1688,7 +1688,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>80</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="K20">
         <f>SUM(K2:K18)</f>
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1715,17 +1715,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>42383</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
